--- a/source/strategy.xlsx
+++ b/source/strategy.xlsx
@@ -5,17 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\gamescript\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\gamescript\source\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55D0F70B-E36B-4315-A157-1E646AA0E1C2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8852CBA7-BA5A-4109-8B75-63D8562589AD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17490" windowHeight="7890" xr2:uid="{D09C6AC7-655D-4B1E-A499-4EBA821291C6}"/>
   </bookViews>
   <sheets>
-    <sheet name="Side1" sheetId="1" r:id="rId1"/>
-    <sheet name="Side2" sheetId="2" r:id="rId2"/>
-    <sheet name="Side3" sheetId="3" r:id="rId3"/>
+    <sheet name="Settings" sheetId="4" r:id="rId1"/>
+    <sheet name="Side1" sheetId="1" r:id="rId2"/>
+    <sheet name="Side2" sheetId="2" r:id="rId3"/>
+    <sheet name="Side3" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="179021"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="37">
   <si>
     <t>第一面</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -124,6 +125,50 @@
   </si>
   <si>
     <t>（不使用技能可以不填也可以填0）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（若技能需要使用，该列一定要进行填写）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础设置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分辨率比例大小：（可在显示-缩放与布局-更改文本、应用等项目的大小下查看，（比如125%即输入1.25））</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重复刷本次数：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否需要吃金苹果：（1代表是，0代表否）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗面数（默认为3面）：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要寻找的助战角色(现在提供的有CBA, kongming, merlin, nero, fox，不需要输入0)：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>助战角色身上带的概念礼装（现在提供的有贝拉丽莎（QP），红茶学妹（bondage），不需要输入0）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>从选人结束至第一面开始的预计时间（s）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>释放技能延迟时间（由于有的模拟器存在卡顿，按键策略有时候会出错，若不存在卡顿可以设置为0，推荐存在一定卡顿的设置为1（s））：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QP</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -131,7 +176,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -144,6 +189,13 @@
       <sz val="9"/>
       <name val="等线"/>
       <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -170,11 +222,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -490,11 +545,101 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD3CA7D3-8162-4A38-A0A5-38F2F52A01A4}">
-  <dimension ref="A1:C19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4132F87-1379-47FC-B3E4-A9BB87BCDE53}">
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="123.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="1"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" s="1">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD3CA7D3-8162-4A38-A0A5-38F2F52A01A4}">
+  <dimension ref="A1:C20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -511,7 +656,9 @@
       <c r="B1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -528,8 +675,12 @@
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
+      <c r="B3" s="1">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
@@ -549,37 +700,37 @@
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="1">
-        <v>1</v>
-      </c>
-      <c r="C6" s="1">
-        <v>1</v>
-      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
+      <c r="B7" s="1">
+        <v>1</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
+      <c r="B8" s="1">
+        <v>1</v>
+      </c>
+      <c r="C8" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="1">
-        <v>1</v>
-      </c>
-      <c r="C9" s="1">
-        <v>1</v>
-      </c>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
@@ -613,12 +764,8 @@
       <c r="A14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="1">
-        <v>1</v>
-      </c>
-      <c r="C14" s="1">
-        <v>1</v>
-      </c>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
@@ -664,6 +811,10 @@
         <v>27</v>
       </c>
       <c r="C19" s="1"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -672,12 +823,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48348C4C-F706-4CF7-8E15-549AF4687FC5}">
   <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -694,7 +845,9 @@
       <c r="B1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -725,12 +878,8 @@
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="1">
-        <v>1</v>
-      </c>
-      <c r="C5" s="1">
-        <v>0</v>
-      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
@@ -750,12 +899,8 @@
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="1">
-        <v>1</v>
-      </c>
-      <c r="C8" s="1">
-        <v>1</v>
-      </c>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
@@ -850,12 +995,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B94A6540-5647-411E-BD19-D1EF0227C28B}">
   <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -872,7 +1017,9 @@
       <c r="B1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -917,12 +1064,8 @@
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="1">
-        <v>1</v>
-      </c>
-      <c r="C7" s="1">
-        <v>0</v>
-      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
@@ -942,34 +1085,22 @@
       <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="1">
-        <v>1</v>
-      </c>
-      <c r="C10" s="1">
-        <v>0</v>
-      </c>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="1">
-        <v>1</v>
-      </c>
-      <c r="C11" s="1">
-        <v>1</v>
-      </c>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="1">
-        <v>1</v>
-      </c>
-      <c r="C12" s="1">
-        <v>1</v>
-      </c>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
